--- a/bin/Berechnungen.xlsx
+++ b/bin/Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mindistwinkel" sheetId="1" r:id="rId1"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q146"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8466,8 +8466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8952,7 +8952,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/bin/Berechnungen.xlsx
+++ b/bin/Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mindistwinkel" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
   <si>
     <t>m</t>
   </si>
@@ -770,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
@@ -8951,8 +8951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8967,7 +8967,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -8978,7 +8978,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="B6">
         <f>B3/B4</f>
-        <v>56.25</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -9002,10 +9002,19 @@
       </c>
       <c r="B7" s="1">
         <f>B6/(2*PI())</f>
-        <v>8.9524655489191129</v>
+        <v>15.915494309189533</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <f>60*B7</f>
+        <v>954.92965855137197</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">

--- a/bin/Berechnungen.xlsx
+++ b/bin/Berechnungen.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mindistwinkel" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="3" r:id="rId2"/>
     <sheet name="Foglio1" sheetId="2" r:id="rId3"/>
     <sheet name="Foglio3" sheetId="4" r:id="rId4"/>
+    <sheet name="Foglio4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>m</t>
   </si>
@@ -174,14 +175,52 @@
   <si>
     <t>a (rad)</t>
   </si>
+  <si>
+    <t>I Ball</t>
+  </si>
+  <si>
+    <t>I Ball gesamt</t>
+  </si>
+  <si>
+    <t>I Rad</t>
+  </si>
+  <si>
+    <t>m rad</t>
+  </si>
+  <si>
+    <t>I Gesamt</t>
+  </si>
+  <si>
+    <t>kg*m^2</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstand </t>
+  </si>
+  <si>
+    <t>Drehzahl mit eine Wurfhöhe von 0.4m, ein Abwurfwinkel von 45°,
+ein Rad mit Radius r = 0,05m und abstand x</t>
+  </si>
+  <si>
+    <t>Geschwindigkeit m/s</t>
+  </si>
+  <si>
+    <t>Drezahl U/min</t>
+  </si>
+  <si>
+    <t>Winkel °</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -212,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -337,11 +376,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -375,6 +588,48 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -770,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q146"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2529,7 @@
         <v>1.85</v>
       </c>
       <c r="K30" s="23">
-        <f t="shared" si="9"/>
+        <f>(SQRT(C30)*I30)/(SQRT(2)*SQRT(I30*H30+A30-B30)*F30)</f>
         <v>4.1433681950799395</v>
       </c>
       <c r="L30" s="23">
@@ -8467,7 +8722,7 @@
   <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8949,20 +9204,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -8973,7 +9231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -8984,7 +9242,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f>0.075*5</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -8996,7 +9260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -9008,7 +9272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -9017,10 +9281,339 @@
         <v>954.92965855137197</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>4.9000000000000005E-5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
       <c r="F11" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <f>B11+0.06*B4*B4</f>
+        <v>1.9900000000000001E-4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>0.3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <f>0.5*B16*B4*B4</f>
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <f>B17+B13</f>
+        <v>5.7400000000000007E-4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <f>((B3/B4)^2)/(2*PI())</f>
+        <v>1591.5494309189535</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <f>B22*B20</f>
+        <v>0.91354937334747943</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="45">
+        <v>1.75</v>
+      </c>
+      <c r="B5" s="46">
+        <f>(SQRT(9.81)*A5)/(SQRT(2)*SQRT(A5*TAN(((45/180)*PI())))*COS(((45/180)*PI())))</f>
+        <v>4.1433681950799404</v>
+      </c>
+      <c r="C5" s="50">
+        <f>((B5/0.05)/(2*PI()))*60</f>
+        <v>791.32503515606038</v>
+      </c>
+      <c r="D5" s="54">
+        <f>ACOS(1.75/A5)*(180/PI())</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="42">
+        <v>1.76</v>
+      </c>
+      <c r="B6" s="40">
+        <f t="shared" ref="B6:B15" si="0">(SQRT(9.81)*A6)/(SQRT(2)*SQRT(A6*TAN(((45/180)*PI())))*COS(((45/180)*PI())))</f>
+        <v>4.1551895263633876</v>
+      </c>
+      <c r="C6" s="41">
+        <f t="shared" ref="C6:C15" si="1">((B6/0.05)/(2*PI()))*60</f>
+        <v>793.58274312528545</v>
+      </c>
+      <c r="D6" s="52">
+        <f t="shared" ref="D6:D15" si="2">ACOS(1.75/A6)*(180/PI())</f>
+        <v>6.1106462488773463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="42">
+        <v>1.77</v>
+      </c>
+      <c r="B7" s="40">
+        <f t="shared" si="0"/>
+        <v>4.1669773217525439</v>
+      </c>
+      <c r="C7" s="41">
+        <f t="shared" si="1"/>
+        <v>795.83404621049351</v>
+      </c>
+      <c r="D7" s="52">
+        <f t="shared" si="2"/>
+        <v>8.6213600928398897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
+        <v>1.78</v>
+      </c>
+      <c r="B8" s="40">
+        <f t="shared" si="0"/>
+        <v>4.1787318650518843</v>
+      </c>
+      <c r="C8" s="41">
+        <f t="shared" si="1"/>
+        <v>798.0789986143468</v>
+      </c>
+      <c r="D8" s="52">
+        <f t="shared" si="2"/>
+        <v>10.534164940871936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="42">
+        <v>1.79</v>
+      </c>
+      <c r="B9" s="40">
+        <f t="shared" si="0"/>
+        <v>4.1904534360854075</v>
+      </c>
+      <c r="C9" s="41">
+        <f t="shared" si="1"/>
+        <v>800.31765377929241</v>
+      </c>
+      <c r="D9" s="52">
+        <f t="shared" si="2"/>
+        <v>12.135374584375702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="40">
+        <f t="shared" si="0"/>
+        <v>4.2021423107743496</v>
+      </c>
+      <c r="C10" s="41">
+        <f t="shared" si="1"/>
+        <v>802.55006440240459</v>
+      </c>
+      <c r="D10" s="52">
+        <f t="shared" si="2"/>
+        <v>13.536202737381151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <v>1.81</v>
+      </c>
+      <c r="B11" s="40">
+        <f t="shared" si="0"/>
+        <v>4.213798761212975</v>
+      </c>
+      <c r="C11" s="41">
+        <f t="shared" si="1"/>
+        <v>804.7762824498601</v>
+      </c>
+      <c r="D11" s="52">
+        <f t="shared" si="2"/>
+        <v>14.793844003936069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
+        <v>1.82</v>
+      </c>
+      <c r="B12" s="40">
+        <f t="shared" si="0"/>
+        <v>4.2254230557424659</v>
+      </c>
+      <c r="C12" s="41">
+        <f t="shared" si="1"/>
+        <v>806.99635917104956</v>
+      </c>
+      <c r="D12" s="52">
+        <f t="shared" si="2"/>
+        <v>15.942368605628653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="42">
+        <v>1.83</v>
+      </c>
+      <c r="B13" s="40">
+        <f t="shared" si="0"/>
+        <v>4.2370154590230147</v>
+      </c>
+      <c r="C13" s="41">
+        <f t="shared" si="1"/>
+        <v>809.21034511234643</v>
+      </c>
+      <c r="D13" s="52">
+        <f t="shared" si="2"/>
+        <v>17.004037075011659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
+        <v>1.84</v>
+      </c>
+      <c r="B14" s="40">
+        <f t="shared" si="0"/>
+        <v>4.2485762321041145</v>
+      </c>
+      <c r="C14" s="41">
+        <f t="shared" si="1"/>
+        <v>811.41829013053132</v>
+      </c>
+      <c r="D14" s="52">
+        <f t="shared" si="2"/>
+        <v>17.99435512930879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="43">
+        <v>1.85</v>
+      </c>
+      <c r="B15" s="44">
+        <f t="shared" si="0"/>
+        <v>4.2601056324931665</v>
+      </c>
+      <c r="C15" s="49">
+        <f t="shared" si="1"/>
+        <v>813.62024340589517</v>
+      </c>
+      <c r="D15" s="53">
+        <f t="shared" si="2"/>
+        <v>18.92464441605123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bin/Berechnungen.xlsx
+++ b/bin/Berechnungen.xlsx
@@ -200,10 +200,6 @@
     <t xml:space="preserve">Abstand </t>
   </si>
   <si>
-    <t>Drehzahl mit eine Wurfhöhe von 0.4m, ein Abwurfwinkel von 45°,
-ein Rad mit Radius r = 0,05m und abstand x</t>
-  </si>
-  <si>
     <t>Geschwindigkeit m/s</t>
   </si>
   <si>
@@ -211,6 +207,10 @@
   </si>
   <si>
     <t>Winkel °</t>
+  </si>
+  <si>
+    <t>Drehzahl mit eine Abwurfhöhe von 0.4m, ein Abwurfwinkel von 45°,
+ein Rad mit Radius r = 0,05m und abstand x</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -591,6 +591,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -609,27 +630,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -9371,248 +9371,249 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="33"/>
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="C5" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="E5" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
-        <v>1.75</v>
-      </c>
-      <c r="B5" s="46">
-        <f>(SQRT(9.81)*A5)/(SQRT(2)*SQRT(A5*TAN(((45/180)*PI())))*COS(((45/180)*PI())))</f>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="39">
+        <v>1.75</v>
+      </c>
+      <c r="C6" s="40">
+        <f>(SQRT(9.81)*B6)/(SQRT(2)*SQRT(B6*TAN(((45/180)*PI())))*COS(((45/180)*PI())))</f>
         <v>4.1433681950799404</v>
       </c>
-      <c r="C5" s="50">
-        <f>((B5/0.05)/(2*PI()))*60</f>
+      <c r="D6" s="44">
+        <f>((C6/0.05)/(2*PI()))*60</f>
         <v>791.32503515606038</v>
       </c>
-      <c r="D5" s="54">
-        <f>ACOS(1.75/A5)*(180/PI())</f>
+      <c r="E6" s="48">
+        <f>ACOS(1.75/B6)*(180/PI())</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="36">
         <v>1.76</v>
       </c>
-      <c r="B6" s="40">
-        <f t="shared" ref="B6:B15" si="0">(SQRT(9.81)*A6)/(SQRT(2)*SQRT(A6*TAN(((45/180)*PI())))*COS(((45/180)*PI())))</f>
+      <c r="C7" s="34">
+        <f t="shared" ref="C7:C16" si="0">(SQRT(9.81)*B7)/(SQRT(2)*SQRT(B7*TAN(((45/180)*PI())))*COS(((45/180)*PI())))</f>
         <v>4.1551895263633876</v>
       </c>
-      <c r="C6" s="41">
-        <f t="shared" ref="C6:C15" si="1">((B6/0.05)/(2*PI()))*60</f>
+      <c r="D7" s="35">
+        <f t="shared" ref="D7:D16" si="1">((C7/0.05)/(2*PI()))*60</f>
         <v>793.58274312528545</v>
       </c>
-      <c r="D6" s="52">
-        <f t="shared" ref="D6:D15" si="2">ACOS(1.75/A6)*(180/PI())</f>
+      <c r="E7" s="46">
+        <f t="shared" ref="E7:E16" si="2">ACOS(1.75/B7)*(180/PI())</f>
         <v>6.1106462488773463</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="36">
         <v>1.77</v>
       </c>
-      <c r="B7" s="40">
+      <c r="C8" s="34">
         <f t="shared" si="0"/>
         <v>4.1669773217525439</v>
       </c>
-      <c r="C7" s="41">
+      <c r="D8" s="35">
         <f t="shared" si="1"/>
         <v>795.83404621049351</v>
       </c>
-      <c r="D7" s="52">
+      <c r="E8" s="46">
         <f t="shared" si="2"/>
         <v>8.6213600928398897</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="36">
         <v>1.78</v>
       </c>
-      <c r="B8" s="40">
+      <c r="C9" s="34">
         <f t="shared" si="0"/>
         <v>4.1787318650518843</v>
       </c>
-      <c r="C8" s="41">
+      <c r="D9" s="35">
         <f t="shared" si="1"/>
         <v>798.0789986143468</v>
       </c>
-      <c r="D8" s="52">
+      <c r="E9" s="46">
         <f t="shared" si="2"/>
         <v>10.534164940871936</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="36">
         <v>1.79</v>
       </c>
-      <c r="B9" s="40">
+      <c r="C10" s="34">
         <f t="shared" si="0"/>
         <v>4.1904534360854075</v>
       </c>
-      <c r="C9" s="41">
+      <c r="D10" s="35">
         <f t="shared" si="1"/>
         <v>800.31765377929241</v>
       </c>
-      <c r="D9" s="52">
+      <c r="E10" s="46">
         <f t="shared" si="2"/>
         <v>12.135374584375702</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="36">
         <v>1.8</v>
       </c>
-      <c r="B10" s="40">
+      <c r="C11" s="34">
         <f t="shared" si="0"/>
         <v>4.2021423107743496</v>
       </c>
-      <c r="C10" s="41">
+      <c r="D11" s="35">
         <f t="shared" si="1"/>
         <v>802.55006440240459</v>
       </c>
-      <c r="D10" s="52">
+      <c r="E11" s="46">
         <f t="shared" si="2"/>
         <v>13.536202737381151</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="36">
         <v>1.81</v>
       </c>
-      <c r="B11" s="40">
+      <c r="C12" s="34">
         <f t="shared" si="0"/>
         <v>4.213798761212975</v>
       </c>
-      <c r="C11" s="41">
+      <c r="D12" s="35">
         <f t="shared" si="1"/>
         <v>804.7762824498601</v>
       </c>
-      <c r="D11" s="52">
+      <c r="E12" s="46">
         <f t="shared" si="2"/>
         <v>14.793844003936069</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="36">
         <v>1.82</v>
       </c>
-      <c r="B12" s="40">
+      <c r="C13" s="34">
         <f t="shared" si="0"/>
         <v>4.2254230557424659</v>
       </c>
-      <c r="C12" s="41">
+      <c r="D13" s="35">
         <f t="shared" si="1"/>
         <v>806.99635917104956</v>
       </c>
-      <c r="D12" s="52">
+      <c r="E13" s="46">
         <f t="shared" si="2"/>
         <v>15.942368605628653</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="36">
         <v>1.83</v>
       </c>
-      <c r="B13" s="40">
+      <c r="C14" s="34">
         <f t="shared" si="0"/>
         <v>4.2370154590230147</v>
       </c>
-      <c r="C13" s="41">
+      <c r="D14" s="35">
         <f t="shared" si="1"/>
         <v>809.21034511234643</v>
       </c>
-      <c r="D13" s="52">
+      <c r="E14" s="46">
         <f t="shared" si="2"/>
         <v>17.004037075011659</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="36">
         <v>1.84</v>
       </c>
-      <c r="B14" s="40">
+      <c r="C15" s="34">
         <f t="shared" si="0"/>
         <v>4.2485762321041145</v>
       </c>
-      <c r="C14" s="41">
+      <c r="D15" s="35">
         <f t="shared" si="1"/>
         <v>811.41829013053132</v>
       </c>
-      <c r="D14" s="52">
+      <c r="E15" s="46">
         <f t="shared" si="2"/>
         <v>17.99435512930879</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="43">
-        <v>1.85</v>
-      </c>
-      <c r="B15" s="44">
+    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="37">
+        <v>1.85</v>
+      </c>
+      <c r="C16" s="38">
         <f t="shared" si="0"/>
         <v>4.2601056324931665</v>
       </c>
-      <c r="C15" s="49">
+      <c r="D16" s="43">
         <f t="shared" si="1"/>
         <v>813.62024340589517</v>
       </c>
-      <c r="D15" s="53">
+      <c r="E16" s="47">
         <f t="shared" si="2"/>
         <v>18.92464441605123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bin/Berechnungen.xlsx
+++ b/bin/Berechnungen.xlsx
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2584,7 +2584,7 @@
         <v>1.85</v>
       </c>
       <c r="K31" s="16">
-        <f t="shared" si="9"/>
+        <f>(SQRT(C31)*I31)/(SQRT(2)*SQRT(I31*H31+A31-B31)*F31)</f>
         <v>4.175204948208953</v>
       </c>
       <c r="L31" s="16">
@@ -8722,7 +8722,7 @@
   <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N9" sqref="N8:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9207,12 +9207,13 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -9374,7 +9375,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/bin/Berechnungen.xlsx
+++ b/bin/Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Mindistwinkel" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Foglio1" sheetId="2" r:id="rId3"/>
     <sheet name="Foglio3" sheetId="4" r:id="rId4"/>
     <sheet name="Foglio4" sheetId="5" r:id="rId5"/>
+    <sheet name="Foglio6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>m</t>
   </si>
@@ -212,6 +213,63 @@
     <t>Drehzahl mit eine Abwurfhöhe von 0.4m, ein Abwurfwinkel von 45°,
 ein Rad mit Radius r = 0,05m und abstand x</t>
   </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>Schrittmotor</t>
+  </si>
+  <si>
+    <t>Platte</t>
+  </si>
+  <si>
+    <t>Gesamtgewicht</t>
+  </si>
+  <si>
+    <t>Plattegewicht</t>
+  </si>
+  <si>
+    <t>Plattenträgheitsmoment</t>
+  </si>
+  <si>
+    <t>Aufbaugewicht</t>
+  </si>
+  <si>
+    <t>Aufbauträgheitsmoment</t>
+  </si>
+  <si>
+    <t>Trägeitsmoment</t>
+  </si>
+  <si>
+    <t>Winkel</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>Winkelbeschleunigung</t>
+  </si>
 </sst>
 </file>
 
@@ -222,9 +280,16 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -554,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -629,6 +694,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8722,7 +8790,7 @@
   <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N8:N9"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9374,8 +9442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9618,4 +9686,179 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <f>0.5*C7*C4*C4</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <f>(1/12)*C8*((0.1^2)+(0.5^2))</f>
+        <v>8.666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <f>C11+C10</f>
+        <v>0.21166666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <f>C15/180*PI()</f>
+        <v>0.3490658503988659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <f>C13*C18</f>
+        <v>0.14816666666666667</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/bin/Berechnungen.xlsx
+++ b/bin/Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mindistwinkel" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
   <si>
     <t>m</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Winkelbeschleunigung</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -8790,7 +8793,7 @@
   <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9272,24 +9275,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -9300,57 +9304,74 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K5">
-        <f>0.075*5</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <f>0.075+0.03</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5">
+        <f>1.06*9.81</f>
+        <v>10.398600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
         <f>B3/B4</f>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1">
         <f>B6/(2*PI())</f>
-        <v>15.915494309189533</v>
+        <v>10.610329539459689</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <f>I5*I4</f>
+        <v>1.0918530000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
       <c r="B8">
         <f>60*B7</f>
-        <v>954.92965855137197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>636.61977236758139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -9362,24 +9383,24 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
       <c r="B13">
         <f>B11+0.06*B4*B4</f>
-        <v>1.9900000000000001E-4</v>
+        <v>3.8649999999999996E-4</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
       <c r="B16">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -9391,7 +9412,7 @@
       </c>
       <c r="B17">
         <f>0.5*B16*B4*B4</f>
-        <v>3.7500000000000001E-4</v>
+        <v>1.4062499999999999E-3</v>
       </c>
       <c r="C17" t="s">
         <v>57</v>
@@ -9403,7 +9424,7 @@
       </c>
       <c r="B20">
         <f>B17+B13</f>
-        <v>5.7400000000000007E-4</v>
+        <v>1.7927499999999999E-3</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -9415,7 +9436,7 @@
       </c>
       <c r="B22">
         <f>((B3/B4)^2)/(2*PI())</f>
-        <v>1591.5494309189535</v>
+        <v>707.35530263064607</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -9427,7 +9448,7 @@
       </c>
       <c r="B24">
         <f>B22*B20</f>
-        <v>0.91354937334747943</v>
+        <v>1.2681112187910906</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -9692,8 +9713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/bin/Berechnungen.xlsx
+++ b/bin/Berechnungen.xlsx
@@ -4,36 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mindistwinkel" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="3" r:id="rId2"/>
-    <sheet name="Foglio1" sheetId="2" r:id="rId3"/>
-    <sheet name="Foglio3" sheetId="4" r:id="rId4"/>
-    <sheet name="Foglio4" sheetId="5" r:id="rId5"/>
-    <sheet name="Foglio6" sheetId="7" r:id="rId6"/>
+    <sheet name="Foglio2" sheetId="3" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio3" sheetId="4" r:id="rId3"/>
+    <sheet name="Foglio4" sheetId="5" r:id="rId4"/>
+    <sheet name="Foglio6" sheetId="7" r:id="rId5"/>
+    <sheet name="Foglio5" sheetId="8" r:id="rId6"/>
+    <sheet name="Foglio7" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>Mindistabstand (in der mitte)</t>
-  </si>
-  <si>
-    <t>Maximalabstand (in der mitte)</t>
-  </si>
-  <si>
-    <t>Maximalabstand (im Ecke)</t>
-  </si>
-  <si>
-    <t>Mindistabstand (im Ecke)</t>
   </si>
   <si>
     <t>g</t>
@@ -126,9 +115,6 @@
     <t>Drehzahl</t>
   </si>
   <si>
-    <t>Mitte</t>
-  </si>
-  <si>
     <t>Energie J</t>
   </si>
   <si>
@@ -198,20 +184,10 @@
     <t>Nm</t>
   </si>
   <si>
-    <t xml:space="preserve">Abstand </t>
-  </si>
-  <si>
     <t>Geschwindigkeit m/s</t>
   </si>
   <si>
     <t>Drezahl U/min</t>
-  </si>
-  <si>
-    <t>Winkel °</t>
-  </si>
-  <si>
-    <t>Drehzahl mit eine Abwurfhöhe von 0.4m, ein Abwurfwinkel von 45°,
-ein Rad mit Radius r = 0,05m und abstand x</t>
   </si>
   <si>
     <t>°</t>
@@ -271,17 +247,79 @@
     <t>Winkelbeschleunigung</t>
   </si>
   <si>
-    <t>F</t>
+    <t>Drehzahl mit eine Abwurfhöhe von 0.4m, ein Abwurfwinkel von 50°,
+ein Rad mit Radius r = 0,075m und abstand x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstand (m) </t>
+  </si>
+  <si>
+    <t>Gleichstrommotor</t>
+  </si>
+  <si>
+    <t>M=F*r</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Nachschub</t>
+  </si>
+  <si>
+    <t>Ausrichtung</t>
+  </si>
+  <si>
+    <t>Schuss</t>
+  </si>
+  <si>
+    <t>Drehmoment (Nm)</t>
+  </si>
+  <si>
+    <t>Drehzahl (U/min)</t>
+  </si>
+  <si>
+    <t>m/U</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>U/min</t>
+  </si>
+  <si>
+    <t>Leistung W</t>
+  </si>
+  <si>
+    <t>Steigung</t>
+  </si>
+  <si>
+    <t>Durchmesser Ball</t>
+  </si>
+  <si>
+    <t>Zeit pro schuss</t>
+  </si>
+  <si>
+    <t>Leistung</t>
+  </si>
+  <si>
+    <t>Umdrehungen pro Ball</t>
+  </si>
+  <si>
+    <t>U/min*Ball</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -319,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -445,51 +483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -515,60 +508,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -604,6 +543,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -613,6 +582,19 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -659,27 +641,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,99 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1.6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>1.75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1.9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>SQRT(B1^2+0.6^2)</f>
-        <v>1.7088007490635064</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <f>B7-((B7-B5)/2)</f>
-        <v>1.8588007490635063</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <f>B5+0.3</f>
-        <v>2.0088007490635063</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q146"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,53 +1022,53 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -8788,12 +8689,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8817,7 +8718,7 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -8825,14 +8726,14 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -8840,14 +8741,14 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -8855,7 +8756,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
@@ -8868,7 +8769,7 @@
         <v>0.06</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -8880,12 +8781,12 @@
         <v>0.06</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="27">
         <v>3.5000000000000003E-2</v>
@@ -8897,7 +8798,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J6" s="27">
         <v>3.5000000000000003E-2</v>
@@ -8908,32 +8809,32 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="27">
         <f>(2/3)*C6*C5*C6</f>
         <v>4.9000000000000005E-5</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J7" s="27">
         <f>(2/3)*J6*J5*J6</f>
         <v>4.9000000000000005E-5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="10"/>
@@ -8941,14 +8842,14 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="27">
         <v>0.3</v>
@@ -8960,7 +8861,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J9" s="27">
         <v>0.35</v>
@@ -8971,7 +8872,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" s="27">
         <v>0.1135</v>
@@ -8980,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J10" s="27">
         <f>0.1135+0.025</f>
@@ -8992,41 +8893,41 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="27">
         <f>C7+C10*C10*C5</f>
         <v>8.2193500000000009E-4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J11" s="27">
         <f>J7+J10*J10*J5</f>
         <v>1.1999350000000003E-3</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="10"/>
       <c r="I12" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="27">
         <v>0.1135</v>
@@ -9035,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J13" s="27">
         <v>0.1135</v>
@@ -9052,7 +8953,7 @@
         <v>0.3</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>0</v>
@@ -9061,29 +8962,29 @@
         <v>0.3</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="28">
         <f>(1/3)*C14*C13^2</f>
         <v>1.288225E-3</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J15" s="28">
         <f>(1/3)*J14*J13^2</f>
         <v>1.288225E-3</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9092,180 +8993,180 @@
     </row>
     <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" s="32">
         <f>C15+C11</f>
         <v>2.1101600000000002E-3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J17" s="32">
         <f>J15+J11</f>
         <v>2.4881600000000005E-3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J19" s="3">
         <v>5</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="I21" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" s="29">
         <f>C23*C17</f>
         <v>0.65175414759609906</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J22" s="29">
         <f>J23*J17</f>
         <v>0.51610598757123149</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23" s="29">
         <f>((C19/C10)^2)/(2*PI())</f>
         <v>308.86480058199328</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J23" s="29">
         <f>((J19/J10)^2)/(2*PI())</f>
         <v>207.42475868562769</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="10"/>
       <c r="I24" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25" s="29">
         <f>C27*60</f>
         <v>420.6738583926749</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J25" s="29">
         <f>J27*60</f>
         <v>344.73994893551333</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C26" s="29">
         <f>C19/C10</f>
         <v>44.052863436123346</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J26" s="29">
         <f>J19/J10</f>
         <v>36.101083032490969</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C27" s="30">
         <f>C26/(2*PI())</f>
         <v>7.0112309732112479</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J27" s="30">
         <f>J26/(2*PI())</f>
         <v>5.7456658155918889</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9273,12 +9174,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9288,25 +9189,25 @@
     <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>7.4999999999999997E-2</v>
@@ -9314,144 +9215,121 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <f>0.075+0.03</f>
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5">
-        <f>1.06*9.81</f>
-        <v>10.398600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <f>B3/B4</f>
         <v>66.666666666666671</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <f>B6/(2*PI())</f>
         <v>10.610329539459689</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7">
-        <f>I5*I4</f>
-        <v>1.0918530000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <f>60*B7</f>
         <v>636.61977236758139</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>4.9000000000000005E-5</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <f>B11+0.06*B4*B4</f>
         <v>3.8649999999999996E-4</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0.5</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <f>0.5*B16*B4*B4</f>
         <v>1.4062499999999999E-3</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <f>B17+B13</f>
         <v>1.7927499999999999E-3</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <f>((B3/B4)^2)/(2*PI())</f>
         <v>707.35530263064607</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <f>B22*B20</f>
         <v>1.2681112187910906</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -9459,17 +9337,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J16"/>
+  <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G15" sqref="G15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
@@ -9477,7 +9355,7 @@
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="49" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -9501,204 +9379,40 @@
     </row>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>62</v>
+      <c r="B5" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="39">
-        <v>1.75</v>
-      </c>
-      <c r="C6" s="40">
+      <c r="B6" s="38">
+        <v>1.75</v>
+      </c>
+      <c r="C6" s="39">
         <f>(SQRT(9.81)*B6)/(SQRT(2)*SQRT(B6*TAN(((45/180)*PI())))*COS(((45/180)*PI())))</f>
         <v>4.1433681950799404</v>
       </c>
-      <c r="D6" s="44">
-        <f>((C6/0.05)/(2*PI()))*60</f>
-        <v>791.32503515606038</v>
-      </c>
-      <c r="E6" s="48">
-        <f>ACOS(1.75/B6)*(180/PI())</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="40">
+        <f>((C6/0.075)/(2*PI()))*60</f>
+        <v>527.55002343737362</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="36">
-        <v>1.76</v>
-      </c>
-      <c r="C7" s="34">
-        <f t="shared" ref="C7:C16" si="0">(SQRT(9.81)*B7)/(SQRT(2)*SQRT(B7*TAN(((45/180)*PI())))*COS(((45/180)*PI())))</f>
-        <v>4.1551895263633876</v>
-      </c>
-      <c r="D7" s="35">
-        <f t="shared" ref="D7:D16" si="1">((C7/0.05)/(2*PI()))*60</f>
-        <v>793.58274312528545</v>
-      </c>
-      <c r="E7" s="46">
-        <f t="shared" ref="E7:E16" si="2">ACOS(1.75/B7)*(180/PI())</f>
-        <v>6.1106462488773463</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="36">
-        <v>1.77</v>
-      </c>
-      <c r="C8" s="34">
-        <f t="shared" si="0"/>
-        <v>4.1669773217525439</v>
-      </c>
-      <c r="D8" s="35">
-        <f t="shared" si="1"/>
-        <v>795.83404621049351</v>
-      </c>
-      <c r="E8" s="46">
-        <f t="shared" si="2"/>
-        <v>8.6213600928398897</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="36">
-        <v>1.78</v>
-      </c>
-      <c r="C9" s="34">
-        <f t="shared" si="0"/>
-        <v>4.1787318650518843</v>
-      </c>
-      <c r="D9" s="35">
-        <f t="shared" si="1"/>
-        <v>798.0789986143468</v>
-      </c>
-      <c r="E9" s="46">
-        <f t="shared" si="2"/>
-        <v>10.534164940871936</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="36">
-        <v>1.79</v>
-      </c>
-      <c r="C10" s="34">
-        <f t="shared" si="0"/>
-        <v>4.1904534360854075</v>
-      </c>
-      <c r="D10" s="35">
-        <f t="shared" si="1"/>
-        <v>800.31765377929241</v>
-      </c>
-      <c r="E10" s="46">
-        <f t="shared" si="2"/>
-        <v>12.135374584375702</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="36">
-        <v>1.8</v>
-      </c>
-      <c r="C11" s="34">
-        <f t="shared" si="0"/>
-        <v>4.2021423107743496</v>
-      </c>
-      <c r="D11" s="35">
-        <f t="shared" si="1"/>
-        <v>802.55006440240459</v>
-      </c>
-      <c r="E11" s="46">
-        <f t="shared" si="2"/>
-        <v>13.536202737381151</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="36">
-        <v>1.81</v>
-      </c>
-      <c r="C12" s="34">
-        <f t="shared" si="0"/>
-        <v>4.213798761212975</v>
-      </c>
-      <c r="D12" s="35">
-        <f t="shared" si="1"/>
-        <v>804.7762824498601</v>
-      </c>
-      <c r="E12" s="46">
-        <f t="shared" si="2"/>
-        <v>14.793844003936069</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="36">
-        <v>1.82</v>
-      </c>
-      <c r="C13" s="34">
-        <f t="shared" si="0"/>
-        <v>4.2254230557424659</v>
-      </c>
-      <c r="D13" s="35">
-        <f t="shared" si="1"/>
-        <v>806.99635917104956</v>
-      </c>
-      <c r="E13" s="46">
-        <f t="shared" si="2"/>
-        <v>15.942368605628653</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="36">
-        <v>1.83</v>
-      </c>
-      <c r="C14" s="34">
-        <f t="shared" si="0"/>
-        <v>4.2370154590230147</v>
-      </c>
-      <c r="D14" s="35">
-        <f t="shared" si="1"/>
-        <v>809.21034511234643</v>
-      </c>
-      <c r="E14" s="46">
-        <f t="shared" si="2"/>
-        <v>17.004037075011659</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="36">
-        <v>1.84</v>
-      </c>
-      <c r="C15" s="34">
-        <f t="shared" si="0"/>
-        <v>4.2485762321041145</v>
-      </c>
-      <c r="D15" s="35">
-        <f t="shared" si="1"/>
-        <v>811.41829013053132</v>
-      </c>
-      <c r="E15" s="46">
-        <f t="shared" si="2"/>
-        <v>17.99435512930879</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="37">
-        <v>1.85</v>
-      </c>
-      <c r="C16" s="38">
-        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" ref="C7" si="0">(SQRT(9.81)*B7)/(SQRT(2)*SQRT(B7*TAN(((45/180)*PI())))*COS(((45/180)*PI())))</f>
         <v>4.2601056324931665</v>
       </c>
-      <c r="D16" s="43">
-        <f t="shared" si="1"/>
-        <v>813.62024340589517</v>
-      </c>
-      <c r="E16" s="47">
-        <f t="shared" si="2"/>
-        <v>18.92464441605123</v>
+      <c r="D7" s="41">
+        <f>((C7/0.075)/(2*PI()))*60</f>
+        <v>542.41349560393019</v>
       </c>
     </row>
   </sheetData>
@@ -9706,15 +9420,16 @@
     <mergeCell ref="B2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9726,7 +9441,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -9740,10 +9455,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -9751,7 +9466,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -9762,10 +9477,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9773,10 +9488,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -9784,10 +9499,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <f>0.5*C7*C4*C4</f>
@@ -9796,10 +9511,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <f>(1/12)*C8*((0.1^2)+(0.5^2))</f>
@@ -9808,10 +9523,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <f>C11+C10</f>
@@ -9820,10 +9535,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -9831,7 +9546,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <f>C15/180*PI()</f>
@@ -9840,24 +9555,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>0.7</v>
@@ -9865,14 +9580,14 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <f>C13*C18</f>
         <v>0.14816666666666667</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -9882,4 +9597,252 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f>0.06*5</f>
+        <v>0.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.05</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B5*9.81*B6</f>
+        <v>0.14715</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="47">
+        <f>E7/60</f>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="1">
+        <f>E6/E5</f>
+        <v>24.333333333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10">
+        <f>E9/E8</f>
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.14715</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <f>E9/E8</f>
+        <v>5840</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="48">
+        <f>B8*B12*2*PI()/60</f>
+        <v>89.991549880610336</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S18" sqref="S18:T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="42">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="42">
+        <v>5840</v>
+      </c>
+      <c r="E4" s="44">
+        <f>90</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="45"/>
+    </row>
+    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="43">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="46">
+        <f>C6*210</f>
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bin/Berechnungen.xlsx
+++ b/bin/Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="3" r:id="rId1"/>
@@ -8693,7 +8693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
@@ -9775,8 +9775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18:T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9835,7 +9835,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="43">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="E6" s="46">
         <f>C6*210</f>

--- a/bin/Berechnungen.xlsx
+++ b/bin/Berechnungen.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="3" r:id="rId1"/>
     <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="4" r:id="rId3"/>
     <sheet name="Foglio4" sheetId="5" r:id="rId4"/>
-    <sheet name="Foglio6" sheetId="7" r:id="rId5"/>
-    <sheet name="Foglio5" sheetId="8" r:id="rId6"/>
-    <sheet name="Foglio7" sheetId="9" r:id="rId7"/>
+    <sheet name="Foglio8" sheetId="10" r:id="rId5"/>
+    <sheet name="Foglio6" sheetId="7" r:id="rId6"/>
+    <sheet name="Foglio5" sheetId="8" r:id="rId7"/>
+    <sheet name="Foglio7" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -8694,7 +8695,7 @@
   <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F16:F17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9426,10 +9427,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3*A2*A1</f>
+        <v>0.24525000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9483,7 +9520,7 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9506,7 +9543,7 @@
       </c>
       <c r="C10">
         <f>0.5*C7*C4*C4</f>
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -9530,7 +9567,7 @@
       </c>
       <c r="C13">
         <f>C11+C10</f>
-        <v>0.21166666666666667</v>
+        <v>0.18041666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -9584,7 +9621,7 @@
       </c>
       <c r="C20">
         <f>C13*C18</f>
-        <v>0.14816666666666667</v>
+        <v>0.12629166666666666</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -9599,12 +9636,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9685,7 +9722,7 @@
         <v>91</v>
       </c>
       <c r="E7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -9704,7 +9741,7 @@
       </c>
       <c r="E8" s="47">
         <f>E7/60</f>
-        <v>4.1666666666666666E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="F8" t="s">
         <v>86</v>
@@ -9725,7 +9762,7 @@
       </c>
       <c r="E10">
         <f>E9/E8</f>
-        <v>5840</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -9745,7 +9782,7 @@
       </c>
       <c r="B12">
         <f>E9/E8</f>
-        <v>5840</v>
+        <v>1460</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
@@ -9756,8 +9793,8 @@
         <v>92</v>
       </c>
       <c r="B13" s="48">
-        <f>B8*B12*2*PI()/60</f>
-        <v>89.991549880610336</v>
+        <f>B11*B12*2*PI()/60</f>
+        <v>22.497887470152584</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
@@ -9771,12 +9808,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9810,11 +9847,10 @@
         <v>0.15</v>
       </c>
       <c r="D4" s="42">
-        <v>5840</v>
+        <v>1460</v>
       </c>
       <c r="E4" s="44">
-        <f>90</f>
-        <v>90</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -9832,14 +9868,14 @@
         <v>82</v>
       </c>
       <c r="C6" s="43">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="43">
         <v>10000</v>
       </c>
       <c r="E6" s="46">
         <f>C6*210</f>
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Berechnungen.xlsx
+++ b/bin/Berechnungen.xlsx
@@ -9343,7 +9343,7 @@
   <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H16"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9427,33 +9427,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9.81</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3*A2*A1</f>
         <v>0.24525000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f>0.25/4</f>
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9813,7 +9819,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9868,14 +9874,14 @@
         <v>82</v>
       </c>
       <c r="C6" s="43">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="D6" s="43">
         <v>10000</v>
       </c>
       <c r="E6" s="46">
         <f>C6*210</f>
-        <v>42</v>
+        <v>26.25</v>
       </c>
     </row>
   </sheetData>
